--- a/production_recipe_management_tool_v1.1/data/Recipes/290_gm_Sweet and Spicy Mayo.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/290_gm_Sweet and Spicy Mayo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FFD152-FA3F-4B78-B294-CDC7C9D87432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817552A-F697-4BA3-A18F-E591E7F451A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,12 +495,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <f>145/1000</f>
-        <v>0.14499999999999999</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>7.2499999999999991</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F4" s="2"/>
     </row>
